--- a/QMU/QMU_app/dataset/zhuangji/zhuangji_valid.xlsx
+++ b/QMU/QMU_app/dataset/zhuangji/zhuangji_valid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\姚方浩\Desktop\MC3.0\zhuangji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\姚方浩\Desktop\QMU_app\dataset\zhuangji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A46F7F-3A62-4461-888A-B9DF08F601FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34765DF-AF5B-4A91-A266-33518DAE5A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="1140" windowWidth="16230" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="16230" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,8 +353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD225"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,7 +469,7 @@
         <v>300</v>
       </c>
       <c r="B10" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -484,7 +480,7 @@
         <v>300</v>
       </c>
       <c r="B11" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -506,7 +502,7 @@
         <v>300</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -517,7 +513,7 @@
         <v>300</v>
       </c>
       <c r="B14" s="1">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -528,10 +524,10 @@
         <v>400</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -539,10 +535,10 @@
         <v>400</v>
       </c>
       <c r="B16" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -550,10 +546,10 @@
         <v>400</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -564,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -572,10 +568,10 @@
         <v>400</v>
       </c>
       <c r="B19" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -583,10 +579,10 @@
         <v>400</v>
       </c>
       <c r="B20" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -594,10 +590,10 @@
         <v>500</v>
       </c>
       <c r="B21" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -605,7 +601,7 @@
         <v>500</v>
       </c>
       <c r="B22" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -627,10 +623,10 @@
         <v>500</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -638,7 +634,7 @@
         <v>500</v>
       </c>
       <c r="B25" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
